--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Penk-Oprd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Penk-Oprd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
+    <t>Penk</t>
+  </si>
+  <si>
+    <t>Oprd1</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Penk</t>
-  </si>
-  <si>
-    <t>Oprd1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -546,10 +540,10 @@
         <v>0.474446</v>
       </c>
       <c r="I2">
-        <v>0.005292031647876478</v>
+        <v>0.005396672170837162</v>
       </c>
       <c r="J2">
-        <v>0.005292031647876477</v>
+        <v>0.005396672170837161</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,10 +558,10 @@
         <v>0.064979</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.7290280598220596</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.7290280598220598</v>
       </c>
       <c r="Q2">
         <v>0.003425447403777777</v>
@@ -576,42 +570,42 @@
         <v>0.030829026634</v>
       </c>
       <c r="S2">
-        <v>0.005292031647876478</v>
+        <v>0.003934325442201119</v>
       </c>
       <c r="T2">
-        <v>0.005292031647876477</v>
+        <v>0.003934325442201119</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>29.146701</v>
+        <v>0.1581486666666667</v>
       </c>
       <c r="H3">
-        <v>87.44010299999999</v>
+        <v>0.474446</v>
       </c>
       <c r="I3">
-        <v>0.9753181444665545</v>
+        <v>0.005396672170837162</v>
       </c>
       <c r="J3">
-        <v>0.9753181444665545</v>
+        <v>0.005396672170837161</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,60 +614,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.02165966666666666</v>
+        <v>0.008050666666666666</v>
       </c>
       <c r="N3">
-        <v>0.064979</v>
+        <v>0.024152</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.2709719401779404</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.2709719401779404</v>
       </c>
       <c r="Q3">
-        <v>0.6313078280929999</v>
+        <v>0.001273202199111111</v>
       </c>
       <c r="R3">
-        <v>5.681770452836999</v>
+        <v>0.011458819792</v>
       </c>
       <c r="S3">
-        <v>0.9753181444665545</v>
+        <v>0.001462346728636043</v>
       </c>
       <c r="T3">
-        <v>0.9753181444665545</v>
+        <v>0.001462346728636043</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2945713333333333</v>
+        <v>29.146701</v>
       </c>
       <c r="H4">
-        <v>0.8837139999999999</v>
+        <v>87.44010299999999</v>
       </c>
       <c r="I4">
-        <v>0.009857059508714402</v>
+        <v>0.9946033278291628</v>
       </c>
       <c r="J4">
-        <v>0.009857059508714402</v>
+        <v>0.9946033278291628</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,54 +682,54 @@
         <v>0.064979</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.7290280598220596</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.7290280598220598</v>
       </c>
       <c r="Q4">
-        <v>0.006380316889555554</v>
+        <v>0.6313078280929999</v>
       </c>
       <c r="R4">
-        <v>0.05742285200599999</v>
+        <v>5.681770452836999</v>
       </c>
       <c r="S4">
-        <v>0.009857059508714402</v>
+        <v>0.7250937343798586</v>
       </c>
       <c r="T4">
-        <v>0.009857059508714402</v>
+        <v>0.7250937343798587</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1890816666666667</v>
+        <v>29.146701</v>
       </c>
       <c r="H5">
-        <v>0.567245</v>
+        <v>87.44010299999999</v>
       </c>
       <c r="I5">
-        <v>0.006327123618071799</v>
+        <v>0.9946033278291628</v>
       </c>
       <c r="J5">
-        <v>0.006327123618071799</v>
+        <v>0.9946033278291628</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,90 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02165966666666666</v>
+        <v>0.008050666666666666</v>
       </c>
       <c r="N5">
-        <v>0.064979</v>
+        <v>0.024152</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.2709719401779404</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.2709719401779404</v>
       </c>
       <c r="Q5">
-        <v>0.004095445872777778</v>
+        <v>0.2346503741839999</v>
       </c>
       <c r="R5">
-        <v>0.036859012855</v>
+        <v>2.111853367656</v>
       </c>
       <c r="S5">
-        <v>0.006327123618071799</v>
+        <v>0.2695095934493043</v>
       </c>
       <c r="T5">
-        <v>0.006327123618071799</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.09579833333333332</v>
-      </c>
-      <c r="H6">
-        <v>0.287395</v>
-      </c>
-      <c r="I6">
-        <v>0.003205640758782791</v>
-      </c>
-      <c r="J6">
-        <v>0.003205640758782791</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.02165966666666666</v>
-      </c>
-      <c r="N6">
-        <v>0.064979</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>0.002074959967222222</v>
-      </c>
-      <c r="R6">
-        <v>0.018674639705</v>
-      </c>
-      <c r="S6">
-        <v>0.003205640758782791</v>
-      </c>
-      <c r="T6">
-        <v>0.003205640758782791</v>
+        <v>0.2695095934493043</v>
       </c>
     </row>
   </sheetData>
